--- a/AccBaseSpecification_KZ-RU.xlsx
+++ b/AccBaseSpecification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -20,28 +20,27 @@
     <sheet name="AppData" sheetId="399" r:id="rId6"/>
     <sheet name="AppMark" sheetId="342" r:id="rId7"/>
     <sheet name="Sign" sheetId="254" r:id="rId8"/>
-    <sheet name="EntryData" sheetId="442" r:id="rId9"/>
-    <sheet name="DocData" sheetId="236" r:id="rId10"/>
-    <sheet name="Operation" sheetId="30" r:id="rId11"/>
-    <sheet name="Face" sheetId="41" r:id="rId12"/>
-    <sheet name="Price" sheetId="219" r:id="rId13"/>
-    <sheet name="CurrencyData" sheetId="65" r:id="rId14"/>
-    <sheet name="Budget" sheetId="98" r:id="rId15"/>
-    <sheet name="Contract" sheetId="89" r:id="rId16"/>
-    <sheet name="Tax" sheetId="93" r:id="rId17"/>
-    <sheet name="Country" sheetId="172" r:id="rId18"/>
-    <sheet name="Account" sheetId="13" r:id="rId19"/>
-    <sheet name="Asset" sheetId="48" r:id="rId20"/>
-    <sheet name="Unit" sheetId="91" r:id="rId21"/>
-    <sheet name="View" sheetId="462" r:id="rId22"/>
-    <sheet name="_Enum" sheetId="480" r:id="rId23"/>
+    <sheet name="DocData" sheetId="236" r:id="rId9"/>
+    <sheet name="Operation" sheetId="30" r:id="rId10"/>
+    <sheet name="Face" sheetId="41" r:id="rId11"/>
+    <sheet name="Price" sheetId="219" r:id="rId12"/>
+    <sheet name="CurrencyData" sheetId="65" r:id="rId13"/>
+    <sheet name="Budget" sheetId="98" r:id="rId14"/>
+    <sheet name="Contract" sheetId="89" r:id="rId15"/>
+    <sheet name="Tax" sheetId="93" r:id="rId16"/>
+    <sheet name="Country" sheetId="172" r:id="rId17"/>
+    <sheet name="Account" sheetId="13" r:id="rId18"/>
+    <sheet name="Asset" sheetId="48" r:id="rId19"/>
+    <sheet name="Unit" sheetId="91" r:id="rId20"/>
+    <sheet name="View" sheetId="462" r:id="rId21"/>
+    <sheet name="_Enum" sheetId="480" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="295">
   <si>
     <t>Договор</t>
   </si>
@@ -526,9 +525,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>проводка, аналитика, субаналитика - все вместе в одной таблице</t>
-  </si>
-  <si>
     <t>SignKindId</t>
   </si>
   <si>
@@ -544,15 +540,6 @@
     <t>DocDataId</t>
   </si>
   <si>
-    <t>EntryData</t>
-  </si>
-  <si>
-    <t>EntryDataId</t>
-  </si>
-  <si>
-    <t>Данные проводки</t>
-  </si>
-  <si>
     <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
@@ -598,9 +585,6 @@
     <t>Данные инфо</t>
   </si>
   <si>
-    <t>Инфо данные</t>
-  </si>
-  <si>
     <t>трудовые договора - это субдоговора с каждым сотром (лицом) под рамочным договором = штатным расписанием</t>
   </si>
   <si>
@@ -649,9 +633,6 @@
     <t>корневая статья</t>
   </si>
   <si>
-    <t>Данные дока</t>
-  </si>
-  <si>
     <t>заголовок и табличные части (строки) документа (вложенные, подчиненные и т.д.)</t>
   </si>
   <si>
@@ -673,9 +654,6 @@
     <t>дата документа (для шапки)</t>
   </si>
   <si>
-    <t>роль структуры документа</t>
-  </si>
-  <si>
     <t>Информация</t>
   </si>
   <si>
@@ -790,12 +768,6 @@
     <t>вид представления</t>
   </si>
   <si>
-    <t>заголовок дока</t>
-  </si>
-  <si>
-    <t>разные инфо</t>
-  </si>
-  <si>
     <t>роль лица</t>
   </si>
   <si>
@@ -916,9 +888,6 @@
     <t>Все infodata</t>
   </si>
   <si>
-    <t>Все entrydata</t>
-  </si>
-  <si>
     <t>Все docdata</t>
   </si>
   <si>
@@ -937,9 +906,6 @@
     <t>0.Все docdata</t>
   </si>
   <si>
-    <t>0.Все entrydata</t>
-  </si>
-  <si>
     <t>0.Все infodata</t>
   </si>
   <si>
@@ -974,6 +940,12 @@
   </si>
   <si>
     <t>Attachment</t>
+  </si>
+  <si>
+    <t>роль структуры документа, роль дока (формы и т.д.)</t>
+  </si>
+  <si>
+    <t>проводка, аналитика, субаналитика</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1219,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1356,7 +1328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1793,8 +1764,8 @@
       <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
-        <v>300</v>
+      <c r="A5" s="106" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1809,7 +1780,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1826,406 +1797,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>271</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2235,7 +1806,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="69" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -2243,17 +1814,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>289</v>
+      <c r="A2" s="72" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2261,7 +1832,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -2269,7 +1840,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2277,7 +1848,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2285,7 +1856,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2293,7 +1864,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2301,7 +1872,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -2309,15 +1880,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>221</v>
+      <c r="A10" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2325,7 +1896,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -2333,7 +1904,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2341,7 +1912,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="65" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2350,7 +1921,7 @@
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -2359,7 +1930,7 @@
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2374,13 +1945,13 @@
     </row>
     <row r="17" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -2390,10 +1961,10 @@
     </row>
     <row r="18" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="34"/>
@@ -2403,7 +1974,7 @@
       <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2412,7 +1983,7 @@
       <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2421,40 +1992,40 @@
       <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="68"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="26" spans="1:8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
-        <v>227</v>
+      <c r="A26" s="92" t="s">
+        <v>220</v>
       </c>
       <c r="B26" s="51"/>
     </row>
@@ -2466,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
@@ -2530,11 +2101,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>221</v>
+      <c r="A8" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2596,24 +2167,24 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2647,11 +2218,11 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>217</v>
+      <c r="A19" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2685,15 +2256,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2709,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2729,19 +2300,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2796,24 +2367,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2833,11 +2404,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2850,14 +2421,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2867,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -2875,15 +2446,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2899,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2927,11 +2498,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2958,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2969,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2990,32 +2561,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C18" s="21"/>
     </row>
@@ -3027,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3035,16 +2606,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C21" s="21"/>
     </row>
@@ -3056,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3076,11 +2647,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>217</v>
+      <c r="A25" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3095,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3112,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3125,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -3133,7 +2704,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3149,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3177,11 +2748,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>221</v>
+      <c r="A10" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3234,24 +2805,24 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3271,11 +2842,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>217</v>
+      <c r="A21" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3287,69 +2858,69 @@
       <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
-        <v>281</v>
+      <c r="A24" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+      <c r="A25" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="101">
+      <c r="A26" s="100">
         <v>3</v>
       </c>
-      <c r="B26" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
+      <c r="B26" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
-        <v>282</v>
+      <c r="A28" s="90" t="s">
+        <v>273</v>
       </c>
       <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="101" t="s">
-        <v>279</v>
+      <c r="A29" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="100" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>237</v>
+      <c r="A30" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3435,11 +3006,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3472,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D12" s="21"/>
     </row>
@@ -3484,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3512,24 +3083,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3551,11 +3122,11 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3574,7 +3145,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3659,11 +3230,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3723,18 +3294,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,11 +3325,11 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,55 +3341,55 @@
       <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>232</v>
+      <c r="A23" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>225</v>
+      <c r="A24" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="92" t="s">
-        <v>272</v>
+      <c r="A25" s="91" t="s">
+        <v>263</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="90"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>234</v>
+      <c r="A27" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>225</v>
+      <c r="A28" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="92" t="s">
-        <v>273</v>
+      <c r="A29" s="91" t="s">
+        <v>264</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3905,11 +3476,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3954,13 +3525,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3969,13 +3540,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -4009,11 +3580,11 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>217</v>
+      <c r="A19" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4028,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
@@ -4105,11 +3676,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4169,36 +3740,36 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,11 +3791,11 @@
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4235,6 +3806,230 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист43">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:D27"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4260,15 +4055,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4284,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4312,11 +4107,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4370,10 +4165,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D16" s="21"/>
     </row>
@@ -4394,11 +4189,11 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>217</v>
+      <c r="A19" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,230 +4207,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист43">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:D27"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4655,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4663,7 +4234,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4679,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4707,11 +4278,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4764,24 +4335,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4801,11 +4372,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4819,7 +4390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4896,11 +4467,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -4955,24 +4526,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D17" s="21"/>
     </row>
@@ -4995,11 +4566,11 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5012,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -5056,7 +4627,7 @@
         <v>138</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5361,10 +4932,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="85" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="85"/>
+    <col min="1" max="1" width="28.5703125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="84" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="84" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="84"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -5372,15 +4943,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5396,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5424,11 +4995,11 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>221</v>
+      <c r="A9" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5448,10 +5019,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="86" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5464,10 +5035,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5496,11 +5067,11 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>217</v>
+      <c r="A18" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5089,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -5531,7 +5102,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5539,15 +5110,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5563,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5593,11 +5164,11 @@
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="C9" s="21"/>
     </row>
@@ -5625,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,7 +5207,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5647,15 +5218,15 @@
         <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
-        <v>214</v>
+      <c r="A15" s="81" t="s">
+        <v>207</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5668,240 +5239,231 @@
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>159</v>
+      <c r="A18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="35"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>35</v>
+      <c r="A20" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>161</v>
       </c>
       <c r="C20" s="35"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>165</v>
+      <c r="A21" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="35"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>37</v>
+      <c r="A22" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>169</v>
       </c>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="35"/>
+      <c r="A23" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>187</v>
-      </c>
+      <c r="A24" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="35"/>
+      <c r="B25" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>210</v>
+      <c r="A26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>9</v>
+      <c r="A27" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>75</v>
-      </c>
+      <c r="A28" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="35"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="35"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="35"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="35"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="35"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="35"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="B35" s="108" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5934,15 +5496,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5958,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5978,19 +5540,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6043,24 +5605,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6080,11 +5642,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6116,15 +5678,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6140,7 +5702,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6160,10 +5722,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6217,24 +5779,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6254,11 +5816,11 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>217</v>
+      <c r="A19" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6291,15 +5853,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6315,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6335,19 +5897,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6400,24 +5962,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6481,16 +6043,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6506,7 +6068,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6534,11 +6096,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6591,24 +6153,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6630,11 +6192,11 @@
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>217</v>
+      <c r="A20" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6652,57 +6214,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
@@ -6710,463 +6266,460 @@
         <v>44</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="C10" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="C12" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="C13" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>195</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
+        <v>207</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="B25" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B35" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="B36" s="108" t="s">
-        <v>303</v>
-      </c>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A37" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="75" t="s">
-        <v>6</v>
+      <c r="A39" s="102" t="s">
+        <v>280</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="105" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="90" t="s">
-        <v>226</v>
-      </c>
-    </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AccBaseSpecification_KZ-RU.xlsx
+++ b/AccBaseSpecification_KZ-RU.xlsx
@@ -20,7 +20,7 @@
     <sheet name="AppData" sheetId="399" r:id="rId6"/>
     <sheet name="AppMark" sheetId="342" r:id="rId7"/>
     <sheet name="Sign" sheetId="254" r:id="rId8"/>
-    <sheet name="DocData" sheetId="236" r:id="rId9"/>
+    <sheet name="LogData" sheetId="236" r:id="rId9"/>
     <sheet name="Operation" sheetId="30" r:id="rId10"/>
     <sheet name="Face" sheetId="41" r:id="rId11"/>
     <sheet name="Price" sheetId="219" r:id="rId12"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="283">
   <si>
     <t>Договор</t>
   </si>
@@ -519,27 +519,12 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>SignKindId</t>
   </si>
   <si>
     <t>Вид знака</t>
   </si>
   <si>
-    <t>Данные документа</t>
-  </si>
-  <si>
-    <t>DocData</t>
-  </si>
-  <si>
-    <t>DocDataId</t>
-  </si>
-  <si>
     <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
@@ -831,27 +816,9 @@
     <t>роль знака</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>основная шапка</t>
-  </si>
-  <si>
-    <t>подчиненная шапка</t>
-  </si>
-  <si>
-    <t>основная строка</t>
-  </si>
-  <si>
-    <t>подчиненная строка</t>
-  </si>
-  <si>
     <t>роль базы налога</t>
   </si>
   <si>
@@ -888,9 +855,6 @@
     <t>Все infodata</t>
   </si>
   <si>
-    <t>Все docdata</t>
-  </si>
-  <si>
     <t>Время</t>
   </si>
   <si>
@@ -903,24 +867,15 @@
     <t>операция без документа также записывается (событие, согласование и т.д.)</t>
   </si>
   <si>
-    <t>0.Все docdata</t>
-  </si>
-  <si>
     <t>0.Все infodata</t>
   </si>
   <si>
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
-    <t>источники данных для entrydata</t>
-  </si>
-  <si>
     <t>2 слой данных = шаблоны заполнения docdata в зависмости от operation\role</t>
   </si>
   <si>
-    <t>1 слой данных = факт, для определения вида источника данных в entrydata</t>
-  </si>
-  <si>
     <t>структура ---</t>
   </si>
   <si>
@@ -946,6 +901,15 @@
   </si>
   <si>
     <t>проводка, аналитика, субаналитика</t>
+  </si>
+  <si>
+    <t>Данные журнала</t>
+  </si>
+  <si>
+    <t>LogData</t>
+  </si>
+  <si>
+    <t>LogDataId</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1183,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1416,12 +1380,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1764,8 +1722,8 @@
       <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
-        <v>289</v>
+      <c r="A5" s="104" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,7 +1738,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1778,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1881,10 +1839,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1945,13 +1903,13 @@
     </row>
     <row r="17" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -1961,10 +1919,10 @@
     </row>
     <row r="18" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="34"/>
@@ -1993,10 +1951,10 @@
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2009,23 +1967,23 @@
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="88" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="92" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B26" s="51"/>
     </row>
@@ -2102,10 +2060,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2167,24 +2125,24 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2219,10 +2177,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,15 +2214,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2280,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,10 +2267,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,24 +2325,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2405,10 +2363,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2438,7 +2396,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -2446,15 +2404,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2470,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2457,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2540,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2561,32 +2519,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C18" s="21"/>
     </row>
@@ -2598,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2606,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C21" s="21"/>
     </row>
@@ -2627,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,10 +2606,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2683,7 +2641,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2696,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2704,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2720,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2749,10 +2707,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2805,24 +2763,24 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2843,10 +2801,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2859,19 +2817,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="90" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="99" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="101"/>
@@ -2882,10 +2840,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="101"/>
@@ -2897,30 +2855,30 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="90" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="96" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="97" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +2965,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3043,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D12" s="21"/>
     </row>
@@ -3055,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3083,24 +3041,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,10 +3081,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,7 +3103,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3231,10 +3189,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3294,18 +3252,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,10 +3284,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,26 +3300,26 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="78" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3370,26 +3328,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B28" s="94" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3477,10 +3435,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3525,13 +3483,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3540,13 +3498,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3581,10 +3539,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3677,10 +3635,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3740,36 +3698,36 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3750,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3884,13 +3842,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3951,24 +3909,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3991,10 +3949,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4055,15 +4013,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4079,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4108,10 +4066,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4165,10 +4123,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D16" s="21"/>
     </row>
@@ -4190,10 +4148,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4226,7 +4184,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4234,7 +4192,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4250,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4279,10 +4237,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4335,24 +4293,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4373,10 +4331,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4468,10 +4426,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -4526,24 +4484,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D17" s="21"/>
     </row>
@@ -4567,10 +4525,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4627,7 +4585,7 @@
         <v>138</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,15 +4901,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4967,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4996,10 +4954,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="85" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5068,10 +5026,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5060,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5110,15 +5068,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5134,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5165,10 +5123,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" s="21"/>
     </row>
@@ -5196,7 +5154,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5207,7 +5165,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5218,15 +5176,15 @@
         <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5270,7 +5228,7 @@
         <v>88</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C20" s="35"/>
     </row>
@@ -5285,39 +5243,39 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="77" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>76</v>
@@ -5339,7 +5297,7 @@
         <v>74</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>75</v>
@@ -5347,10 +5305,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C28" s="35"/>
     </row>
@@ -5374,10 +5332,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C31" s="35"/>
     </row>
@@ -5399,19 +5357,19 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>292</v>
+      <c r="A34" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -5424,15 +5382,15 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -5440,7 +5398,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -5448,22 +5406,22 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5496,15 +5454,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5520,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5549,10 +5507,10 @@
     </row>
     <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5605,24 +5563,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5643,10 +5601,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5678,15 +5636,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5702,7 +5660,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,24 +5737,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5817,10 +5775,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5853,15 +5811,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5877,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5906,10 +5864,10 @@
     </row>
     <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5962,24 +5920,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6043,16 +6001,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6068,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,10 +6055,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,24 +6111,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6193,10 +6151,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6214,7 +6172,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -6226,20 +6184,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6255,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6266,7 +6224,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6290,10 +6248,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6304,7 +6262,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6326,7 +6284,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6337,7 +6295,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6350,10 +6308,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6386,7 +6344,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6399,10 +6357,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="98" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6415,32 +6373,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C25" s="21"/>
     </row>
@@ -6449,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C26" s="21"/>
     </row>
@@ -6464,10 +6422,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C28" s="21"/>
     </row>
@@ -6491,10 +6449,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6516,206 +6474,141 @@
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>292</v>
+      <c r="A34" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>277</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="103" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="105" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>222</v>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
